--- a/biology/Mycologie/Pleosporaceae/Pleosporaceae.xlsx
+++ b/biology/Mycologie/Pleosporaceae/Pleosporaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleosporacées
 Les Pleosporaceae sont une famille de champignons ascomycètes de la classe des Dothideomycetes.
-Cette famille importante de Loculoascomycètes comprend plus de 40 genres, cependant il n'existe pas de consensus sur le placement de plusieurs de ces genres au sein de cette famille[2].
+Cette famille importante de Loculoascomycètes comprend plus de 40 genres, cependant il n'existe pas de consensus sur le placement de plusieurs de ces genres au sein de cette famille.
 Certains genres, tels que Alternaria, Bipolaris, Cochliobolus, Pleospora, Pyrenophora, Ulocladium, etc. ont une importance économique en tant qu'agents pathogènes des plantes, responsables de maladies (alternarioses, helminthosporioses…).
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (21 août 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (21 août 2017) :
 genre Alternaria
 genre Alternariaster
 genre Bipolaris
@@ -561,7 +575,7 @@
 genre Teretispora
 genre Trichoconiella
 genre Ulocladium
-Selon ITIS      (21 août 2017)[4] :
+Selon ITIS      (21 août 2017) :
 genre Alternaria Nees Von Esenb. Ex Fries
 genre Dendryphiella Bubak &amp; Ranojevic, 1914
 genre Didymosphaeria Fuckel, 1869
